--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Bin.Multi.Protein.RANK.Symptoms.MODEL2.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Bin.Multi.Protein.RANK.Symptoms.MODEL2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve">AsymptSympt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
 </sst>
 </file>
@@ -461,43 +467,143 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.255796764804076</v>
+        <v>0.231510840395742</v>
       </c>
       <c r="E2" t="n">
-        <v>0.101849956891942</v>
+        <v>0.110871661398763</v>
       </c>
       <c r="F2" t="n">
-        <v>1.29149022499678</v>
+        <v>1.2605029908548</v>
       </c>
       <c r="G2" t="n">
-        <v>1.05777838899244</v>
+        <v>1.01430371706572</v>
       </c>
       <c r="H2" t="n">
-        <v>1.57683974131008</v>
+        <v>1.56646156690655</v>
       </c>
       <c r="I2" t="n">
-        <v>2.51150587206891</v>
+        <v>2.08809751270061</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0120217285837176</v>
+        <v>0.0367890393838166</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0581341428400991</v>
+        <v>0.0825603135493815</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0399453979122769</v>
+        <v>0.056179761222278</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0792531754281241</v>
+        <v>0.111560948396554</v>
       </c>
       <c r="N2" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O2" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="P2" t="n">
-        <v>57.207765386204</v>
+        <v>57.1605447791993</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.363828497456171</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.119157758680502</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.43882743043218</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.13914649162784</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.81734692577223</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.05333451623326</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.002263135045014</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0896426922742771</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0608495285666619</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.120834104109508</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1038</v>
+      </c>
+      <c r="P3" t="n">
+        <v>57.1605447791993</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35843253654479</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.131412121172534</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.43108448296749</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.10612706009474</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.85150772571727</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.72754547561253</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00638074617586061</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0643929941859342</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.055581629821186</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0944375497408653</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O4" t="n">
+        <v>498</v>
+      </c>
+      <c r="P4" t="n">
+        <v>79.4469665703673</v>
       </c>
     </row>
   </sheetData>
